--- a/tools/role.xlsx
+++ b/tools/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-66820" yWindow="-260" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="-38280" yWindow="-1080" windowWidth="35380" windowHeight="20120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,28 +37,281 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>punkA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Body_33_punk_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>head_64_punk_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Body_31_punk_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_62_punk_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pubkB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boy1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body_02_blackTshirt</t>
+  </si>
+  <si>
+    <t>head_00</t>
+  </si>
+  <si>
+    <t>boy2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body_16_whiteTshirt</t>
+  </si>
+  <si>
+    <t>men1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body_09_jacket</t>
+  </si>
+  <si>
+    <t>head_02</t>
+  </si>
+  <si>
+    <t>Body_01_blackjacket</t>
+  </si>
+  <si>
+    <t>men2</t>
+  </si>
+  <si>
+    <t>head_09</t>
+  </si>
+  <si>
+    <t>Body_10_greysuit</t>
+  </si>
+  <si>
+    <t>men3</t>
+  </si>
+  <si>
+    <t>men4</t>
+  </si>
+  <si>
+    <t>Body_13_redtie</t>
+  </si>
+  <si>
+    <t>head_05</t>
+  </si>
+  <si>
+    <t>men5</t>
+  </si>
+  <si>
+    <t>Body_18_pinkpolo</t>
+  </si>
+  <si>
+    <t>head_27_senior_D</t>
+  </si>
+  <si>
+    <t>glass_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_add_glasses_A</t>
+  </si>
+  <si>
+    <t>Body_06_tanktop</t>
+  </si>
+  <si>
+    <t>head_35_beret_C</t>
+  </si>
+  <si>
+    <t>Body_03_redshirt</t>
+  </si>
+  <si>
+    <t>head_31_cap_D</t>
+  </si>
+  <si>
+    <t>head_add_glasses_B</t>
+  </si>
+  <si>
+    <t>men6</t>
+  </si>
+  <si>
+    <t>men7</t>
+  </si>
+  <si>
+    <t>Body_08_sportschain</t>
+  </si>
+  <si>
+    <t>head_22_afro_B</t>
+  </si>
+  <si>
+    <t>Body_12_whitesuit</t>
+  </si>
+  <si>
+    <t>head_42_hat_G</t>
+  </si>
+  <si>
+    <t>Body_34_rocker_A</t>
+  </si>
+  <si>
+    <t>head_17_longhair_B</t>
+  </si>
+  <si>
+    <t>Body_24_leatherjacket</t>
+  </si>
+  <si>
+    <t>head_15_rockabilly</t>
+  </si>
+  <si>
+    <t>Body_07_sports</t>
+  </si>
+  <si>
+    <t>head_29_cap_B</t>
+  </si>
+  <si>
+    <t>Body_26_bandit</t>
+  </si>
+  <si>
+    <t>head_41_hat_F</t>
+  </si>
+  <si>
+    <t>Body_47_doctor</t>
+  </si>
+  <si>
+    <t>head_11</t>
+  </si>
+  <si>
+    <t>men8</t>
+  </si>
+  <si>
+    <t>men9</t>
+  </si>
+  <si>
+    <t>men10</t>
+  </si>
+  <si>
+    <t>men11</t>
+  </si>
+  <si>
+    <t>men12</t>
+  </si>
+  <si>
+    <t>men13</t>
+  </si>
+  <si>
+    <t>men14</t>
+  </si>
+  <si>
+    <t>Body_37_farmer_A</t>
+  </si>
+  <si>
+    <t>head_55_farmer_B</t>
+  </si>
+  <si>
+    <t>Body_38_farmer_B</t>
+  </si>
+  <si>
+    <t>head_56_farmer_C</t>
+  </si>
+  <si>
+    <t>farmer1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>farmer2</t>
+  </si>
+  <si>
+    <t>farmer3</t>
+  </si>
+  <si>
+    <t>Body_39_farmer_C</t>
+  </si>
+  <si>
+    <t>head_58_farmer_E</t>
+  </si>
+  <si>
+    <t>Body_40_police_A</t>
+  </si>
+  <si>
+    <t>police1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>police2</t>
+  </si>
+  <si>
+    <t>police3</t>
+  </si>
+  <si>
+    <t>police4</t>
+  </si>
+  <si>
+    <t>police5</t>
+  </si>
+  <si>
+    <t>head_46_police_A</t>
+  </si>
+  <si>
+    <t>Body_41_police_B</t>
+  </si>
+  <si>
+    <t>head_48_police_C</t>
+  </si>
+  <si>
+    <t>Body_43_police_D</t>
+  </si>
+  <si>
+    <t>head_44_cowboyhat_A</t>
+  </si>
+  <si>
+    <t>Body_44_police_E</t>
+  </si>
+  <si>
+    <t>head_49_police_D</t>
+  </si>
+  <si>
+    <t>head_add_glasses_C</t>
+  </si>
+  <si>
+    <t>oldman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body_46_priest</t>
+  </si>
+  <si>
+    <t>head_24_senior_A</t>
+  </si>
+  <si>
+    <t>head_65_punk_D</t>
+  </si>
+  <si>
+    <t>Body_32_punk_C</t>
+  </si>
+  <si>
+    <t>head_66_punk_E</t>
+  </si>
+  <si>
+    <t>Body_28_worker_A</t>
+  </si>
+  <si>
+    <t>head_53_worker_B</t>
+  </si>
+  <si>
+    <t>punk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>punk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worker1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body_29_worker_B</t>
+  </si>
+  <si>
+    <t>head_52_worker_A</t>
+  </si>
+  <si>
+    <t>worker2</t>
+  </si>
+  <si>
+    <t>punk3</t>
   </si>
 </sst>
 </file>
@@ -123,8 +376,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -168,7 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="47">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -189,6 +450,10 @@
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -208,6 +473,10 @@
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -536,20 +805,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,22 +832,28 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -585,10 +861,420 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/tools/role.xlsx
+++ b/tools/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38280" yWindow="-1080" windowWidth="35380" windowHeight="20120" tabRatio="500"/>
+    <workbookView xWindow="-36480" yWindow="3400" windowWidth="35380" windowHeight="20120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,6 +312,10 @@
   </si>
   <si>
     <t>punk3</t>
+  </si>
+  <si>
+    <t>head_47_police_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -376,8 +380,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -429,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -454,6 +460,7 @@
     <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -477,6 +484,7 @@
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -808,7 +816,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1139,7 +1147,10 @@
         <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>93</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5">
